--- a/Labb4/Instrument.xlsx
+++ b/Labb4/Instrument.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="C4:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +415,7 @@
       </c>
       <c r="H5">
         <f>C9*E14</f>
-        <v>1.6500000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -432,20 +432,30 @@
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>C5*C6</f>
-        <v>0.16500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="F9">
         <f>H4/C9</f>
-        <v>18.18181818181818</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
       </c>
       <c r="L9" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
@@ -454,13 +464,13 @@
       </c>
       <c r="E14">
         <f>5+(80/H14)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
